--- a/script_master_data/DED-Prosa_Adopcion IA_v1a.xlsx
+++ b/script_master_data/DED-Prosa_Adopcion IA_v1a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="719" documentId="8_{45728CD1-7C2E-4426-A31B-B57B48D0CABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8780E4-CA4D-42D4-93B4-9B8F78280C09}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6435" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3266,6 +3264,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3349,10 +3351,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4881,7 +4879,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4971,7 +4969,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5079,7 +5077,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5155,7 +5153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5712,7 +5710,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5892,7 +5890,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6072,7 +6070,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -6131,7 +6129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -6173,7 +6171,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -6233,7 +6231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6263,7 +6261,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6339,7 +6337,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6376,7 +6374,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C57</c:f>
+              <c:f>Reporte!$C$49:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6465,7 +6463,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C57</c:f>
+              <c:f>Reporte!$C$49:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6554,7 +6552,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C57</c:f>
+              <c:f>Reporte!$C$49:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6643,7 +6641,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C57</c:f>
+              <c:f>Reporte!$C$49:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6776,7 +6774,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6808,7 +6806,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C57</c:f>
+              <c:f>Reporte!$C$49:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6926,7 +6924,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6958,7 +6956,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C57</c:f>
+              <c:f>Reporte!$C$49:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7088,7 +7086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -7147,7 +7145,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -7189,7 +7187,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -7249,7 +7247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7279,7 +7277,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7355,7 +7353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7539,7 +7537,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7679,7 +7677,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7709,7 +7707,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7785,7 +7783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8056,7 +8054,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8206,7 +8204,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -8288,7 +8286,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8320,7 +8318,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -8385,7 +8383,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8417,7 +8415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -8477,7 +8475,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8507,7 +8505,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8583,7 +8581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9140,7 +9138,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9320,7 +9318,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9500,7 +9498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -9559,7 +9557,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -9601,7 +9599,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -9661,7 +9659,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9691,7 +9689,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9767,7 +9765,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10324,7 +10322,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10504,7 +10502,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10684,7 +10682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -10743,7 +10741,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -10785,7 +10783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -10845,7 +10843,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10875,7 +10873,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10951,7 +10949,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11507,7 +11505,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11687,7 +11685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -11746,7 +11744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -11788,7 +11786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -11848,7 +11846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11878,7 +11876,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11954,7 +11952,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12511,7 +12509,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12691,7 +12689,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12871,7 +12869,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12930,7 +12928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12972,7 +12970,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -13032,7 +13030,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13062,7 +13060,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13138,7 +13136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13695,7 +13693,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13875,7 +13873,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -14055,7 +14053,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -14114,7 +14112,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -14156,7 +14154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -14216,7 +14214,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14246,7 +14244,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14322,7 +14320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14879,7 +14877,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -15059,7 +15057,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -15239,7 +15237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -15298,7 +15296,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -15340,7 +15338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -15400,7 +15398,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15430,7 +15428,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21906,7 +21904,7 @@
 </file>
 
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <namedSheetView name="Vista 1" id="{3E2407BC-CAE0-410D-9AE9-328043531687}"/>
 </namedSheetViews>
 </file>
@@ -22176,31 +22174,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AS245"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AN231" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AP243" sqref="AP243"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="154.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="43.140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="94.42578125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="154.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.54296875" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="40" width="9.1796875" style="1"/>
+    <col min="41" max="41" width="43.1796875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="94.453125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -22208,12 +22206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15">
+    <row r="3" spans="2:44" ht="14.5">
       <c r="B3" s="86" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -22264,7 +22262,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="6"/>
     </row>
-    <row r="5" spans="2:44" ht="40.5">
+    <row r="5" spans="2:44" ht="39">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -22395,7 +22393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:44" ht="15">
+    <row r="6" spans="2:44" ht="14">
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
@@ -22472,7 +22470,7 @@
       <c r="AQ6" s="29"/>
       <c r="AR6" s="29"/>
     </row>
-    <row r="7" spans="2:44" ht="15">
+    <row r="7" spans="2:44" ht="14">
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
@@ -22541,7 +22539,7 @@
       <c r="AQ7" s="29"/>
       <c r="AR7" s="29"/>
     </row>
-    <row r="8" spans="2:44" ht="15">
+    <row r="8" spans="2:44" ht="14">
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
@@ -22610,7 +22608,7 @@
       <c r="AQ8" s="29"/>
       <c r="AR8" s="29"/>
     </row>
-    <row r="9" spans="2:44" ht="15">
+    <row r="9" spans="2:44" ht="14">
       <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
@@ -22679,7 +22677,7 @@
       <c r="AQ9" s="29"/>
       <c r="AR9" s="29"/>
     </row>
-    <row r="10" spans="2:44" ht="15">
+    <row r="10" spans="2:44" ht="14">
       <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
@@ -22748,7 +22746,7 @@
       <c r="AQ10" s="29"/>
       <c r="AR10" s="29"/>
     </row>
-    <row r="11" spans="2:44" ht="15">
+    <row r="11" spans="2:44" ht="14">
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
@@ -22817,7 +22815,7 @@
       <c r="AQ11" s="29"/>
       <c r="AR11" s="29"/>
     </row>
-    <row r="12" spans="2:44" ht="15">
+    <row r="12" spans="2:44" ht="14">
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
@@ -22886,7 +22884,7 @@
       <c r="AQ12" s="29"/>
       <c r="AR12" s="29"/>
     </row>
-    <row r="13" spans="2:44" ht="15">
+    <row r="13" spans="2:44" ht="14">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -22955,7 +22953,7 @@
       <c r="AQ13" s="29"/>
       <c r="AR13" s="29"/>
     </row>
-    <row r="14" spans="2:44" ht="15">
+    <row r="14" spans="2:44" ht="14">
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
@@ -23024,7 +23022,7 @@
       <c r="AQ14" s="29"/>
       <c r="AR14" s="29"/>
     </row>
-    <row r="15" spans="2:44" ht="15">
+    <row r="15" spans="2:44" ht="14">
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
@@ -23101,7 +23099,7 @@
       <c r="AQ15" s="29"/>
       <c r="AR15" s="29"/>
     </row>
-    <row r="16" spans="2:44" ht="15">
+    <row r="16" spans="2:44" ht="14">
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
@@ -23170,7 +23168,7 @@
       <c r="AQ16" s="29"/>
       <c r="AR16" s="29"/>
     </row>
-    <row r="17" spans="2:44" ht="15">
+    <row r="17" spans="2:44" ht="14">
       <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
@@ -23239,7 +23237,7 @@
       <c r="AQ17" s="29"/>
       <c r="AR17" s="29"/>
     </row>
-    <row r="18" spans="2:44" ht="15">
+    <row r="18" spans="2:44" ht="14">
       <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
@@ -23308,7 +23306,7 @@
       <c r="AQ18" s="29"/>
       <c r="AR18" s="29"/>
     </row>
-    <row r="19" spans="2:44" ht="15">
+    <row r="19" spans="2:44" ht="14">
       <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
@@ -23393,7 +23391,7 @@
       <c r="AQ19" s="29"/>
       <c r="AR19" s="29"/>
     </row>
-    <row r="20" spans="2:44" ht="15">
+    <row r="20" spans="2:44" ht="14">
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
@@ -23480,7 +23478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:44" ht="15">
+    <row r="21" spans="2:44" ht="26">
       <c r="B21" s="9" t="s">
         <v>55</v>
       </c>
@@ -23571,7 +23569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:44" ht="15">
+    <row r="22" spans="2:44" ht="14">
       <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
@@ -23646,7 +23644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:44" ht="15">
+    <row r="23" spans="2:44" ht="14">
       <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
@@ -23715,7 +23713,7 @@
       <c r="AQ23" s="29"/>
       <c r="AR23" s="29"/>
     </row>
-    <row r="24" spans="2:44" ht="15">
+    <row r="24" spans="2:44" ht="14">
       <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
@@ -23798,7 +23796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:44" ht="15">
+    <row r="25" spans="2:44" ht="14">
       <c r="B25" s="9" t="s">
         <v>55</v>
       </c>
@@ -23877,7 +23875,7 @@
       <c r="AQ25" s="29"/>
       <c r="AR25" s="29"/>
     </row>
-    <row r="26" spans="2:44" ht="15">
+    <row r="26" spans="2:44" ht="14">
       <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
@@ -23956,7 +23954,7 @@
       <c r="AQ26" s="29"/>
       <c r="AR26" s="29"/>
     </row>
-    <row r="27" spans="2:44" ht="15">
+    <row r="27" spans="2:44" ht="14">
       <c r="B27" s="9" t="s">
         <v>55</v>
       </c>
@@ -24025,7 +24023,7 @@
       <c r="AQ27" s="29"/>
       <c r="AR27" s="29"/>
     </row>
-    <row r="28" spans="2:44" ht="15">
+    <row r="28" spans="2:44" ht="14">
       <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
@@ -24100,7 +24098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:44" ht="15">
+    <row r="29" spans="2:44" ht="14">
       <c r="B29" s="9" t="s">
         <v>55</v>
       </c>
@@ -24169,7 +24167,7 @@
       <c r="AQ29" s="29"/>
       <c r="AR29" s="29"/>
     </row>
-    <row r="30" spans="2:44" ht="15">
+    <row r="30" spans="2:44" ht="14">
       <c r="B30" s="9" t="s">
         <v>55</v>
       </c>
@@ -24258,7 +24256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:44" ht="15">
+    <row r="31" spans="2:44" ht="14">
       <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
@@ -24329,7 +24327,7 @@
       <c r="AQ31" s="29"/>
       <c r="AR31" s="29"/>
     </row>
-    <row r="32" spans="2:44" ht="15">
+    <row r="32" spans="2:44" ht="14">
       <c r="B32" s="9" t="s">
         <v>55</v>
       </c>
@@ -24404,7 +24402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:44" ht="15">
+    <row r="33" spans="2:44" ht="14">
       <c r="B33" s="9" t="s">
         <v>55</v>
       </c>
@@ -24479,7 +24477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:44" ht="15">
+    <row r="34" spans="2:44" ht="14">
       <c r="B34" s="9" t="s">
         <v>55</v>
       </c>
@@ -24548,7 +24546,7 @@
       <c r="AQ34" s="29"/>
       <c r="AR34" s="29"/>
     </row>
-    <row r="35" spans="2:44" ht="15">
+    <row r="35" spans="2:44" ht="14">
       <c r="B35" s="9" t="s">
         <v>55</v>
       </c>
@@ -24643,7 +24641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:44" ht="15">
+    <row r="36" spans="2:44" ht="14">
       <c r="B36" s="9" t="s">
         <v>55</v>
       </c>
@@ -24712,7 +24710,7 @@
       <c r="AQ36" s="29"/>
       <c r="AR36" s="29"/>
     </row>
-    <row r="37" spans="2:44" ht="15">
+    <row r="37" spans="2:44" ht="14">
       <c r="B37" s="9" t="s">
         <v>55</v>
       </c>
@@ -24781,7 +24779,7 @@
       <c r="AQ37" s="29"/>
       <c r="AR37" s="29"/>
     </row>
-    <row r="38" spans="2:44" ht="15">
+    <row r="38" spans="2:44" ht="14">
       <c r="B38" s="9" t="s">
         <v>55</v>
       </c>
@@ -24866,7 +24864,7 @@
       <c r="AQ38" s="29"/>
       <c r="AR38" s="29"/>
     </row>
-    <row r="39" spans="2:44" ht="15">
+    <row r="39" spans="2:44" ht="14">
       <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
@@ -24941,7 +24939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:44" ht="15">
+    <row r="40" spans="2:44" ht="14">
       <c r="B40" s="9" t="s">
         <v>55</v>
       </c>
@@ -25016,7 +25014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:44" ht="15">
+    <row r="41" spans="2:44" ht="14">
       <c r="B41" s="9" t="s">
         <v>55</v>
       </c>
@@ -25105,7 +25103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:44" ht="15">
+    <row r="42" spans="2:44" ht="14">
       <c r="B42" s="9" t="s">
         <v>55</v>
       </c>
@@ -25190,7 +25188,7 @@
       <c r="AQ42" s="29"/>
       <c r="AR42" s="29"/>
     </row>
-    <row r="43" spans="2:44" ht="15">
+    <row r="43" spans="2:44" ht="14">
       <c r="B43" s="9" t="s">
         <v>55</v>
       </c>
@@ -25291,7 +25289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:44" ht="15">
+    <row r="44" spans="2:44" ht="14">
       <c r="B44" s="9" t="s">
         <v>55</v>
       </c>
@@ -25360,7 +25358,7 @@
       <c r="AQ44" s="29"/>
       <c r="AR44" s="29"/>
     </row>
-    <row r="45" spans="2:44" ht="15">
+    <row r="45" spans="2:44" ht="14">
       <c r="B45" s="25" t="s">
         <v>129</v>
       </c>
@@ -25429,7 +25427,7 @@
       <c r="AQ45" s="29"/>
       <c r="AR45" s="29"/>
     </row>
-    <row r="46" spans="2:44" ht="15">
+    <row r="46" spans="2:44" ht="14">
       <c r="B46" s="25" t="s">
         <v>129</v>
       </c>
@@ -25498,7 +25496,7 @@
       <c r="AQ46" s="29"/>
       <c r="AR46" s="29"/>
     </row>
-    <row r="47" spans="2:44" ht="15">
+    <row r="47" spans="2:44" ht="14">
       <c r="B47" s="25" t="s">
         <v>129</v>
       </c>
@@ -25567,7 +25565,7 @@
       <c r="AQ47" s="29"/>
       <c r="AR47" s="29"/>
     </row>
-    <row r="48" spans="2:44" ht="15">
+    <row r="48" spans="2:44" ht="14">
       <c r="B48" s="25" t="s">
         <v>129</v>
       </c>
@@ -25636,7 +25634,7 @@
       <c r="AQ48" s="29"/>
       <c r="AR48" s="29"/>
     </row>
-    <row r="49" spans="2:44" ht="15">
+    <row r="49" spans="2:44" ht="14">
       <c r="B49" s="25" t="s">
         <v>129</v>
       </c>
@@ -25705,7 +25703,7 @@
       <c r="AQ49" s="29"/>
       <c r="AR49" s="29"/>
     </row>
-    <row r="50" spans="2:44" ht="15">
+    <row r="50" spans="2:44" ht="14">
       <c r="B50" s="25" t="s">
         <v>129</v>
       </c>
@@ -25774,7 +25772,7 @@
       <c r="AQ50" s="29"/>
       <c r="AR50" s="29"/>
     </row>
-    <row r="51" spans="2:44" ht="15">
+    <row r="51" spans="2:44" ht="14">
       <c r="B51" s="25" t="s">
         <v>129</v>
       </c>
@@ -25853,7 +25851,7 @@
       <c r="AQ51" s="29"/>
       <c r="AR51" s="29"/>
     </row>
-    <row r="52" spans="2:44" ht="15">
+    <row r="52" spans="2:44" ht="14">
       <c r="B52" s="25" t="s">
         <v>129</v>
       </c>
@@ -25920,7 +25918,7 @@
       <c r="AQ52" s="29"/>
       <c r="AR52" s="29"/>
     </row>
-    <row r="53" spans="2:44" ht="15">
+    <row r="53" spans="2:44" ht="14">
       <c r="B53" s="25" t="s">
         <v>129</v>
       </c>
@@ -25989,7 +25987,7 @@
       <c r="AQ53" s="29"/>
       <c r="AR53" s="29"/>
     </row>
-    <row r="54" spans="2:44" ht="15">
+    <row r="54" spans="2:44" ht="14">
       <c r="B54" s="25" t="s">
         <v>129</v>
       </c>
@@ -26058,7 +26056,7 @@
       <c r="AQ54" s="29"/>
       <c r="AR54" s="29"/>
     </row>
-    <row r="55" spans="2:44" ht="15">
+    <row r="55" spans="2:44" ht="14">
       <c r="B55" s="25" t="s">
         <v>129</v>
       </c>
@@ -26127,7 +26125,7 @@
       <c r="AQ55" s="29"/>
       <c r="AR55" s="29"/>
     </row>
-    <row r="56" spans="2:44" ht="15">
+    <row r="56" spans="2:44" ht="14">
       <c r="B56" s="25" t="s">
         <v>129</v>
       </c>
@@ -26196,7 +26194,7 @@
       <c r="AQ56" s="29"/>
       <c r="AR56" s="29"/>
     </row>
-    <row r="57" spans="2:44" ht="15">
+    <row r="57" spans="2:44" ht="14">
       <c r="B57" s="25" t="s">
         <v>129</v>
       </c>
@@ -26265,7 +26263,7 @@
       <c r="AQ57" s="29"/>
       <c r="AR57" s="29"/>
     </row>
-    <row r="58" spans="2:44" ht="15">
+    <row r="58" spans="2:44" ht="14">
       <c r="B58" s="25" t="s">
         <v>129</v>
       </c>
@@ -26340,7 +26338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="2:44" ht="15">
+    <row r="59" spans="2:44" ht="14">
       <c r="B59" s="25" t="s">
         <v>129</v>
       </c>
@@ -26417,7 +26415,7 @@
       <c r="AQ59" s="29"/>
       <c r="AR59" s="29"/>
     </row>
-    <row r="60" spans="2:44" ht="15">
+    <row r="60" spans="2:44" ht="14.5">
       <c r="B60" s="25" t="s">
         <v>129</v>
       </c>
@@ -26492,7 +26490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="2:44" ht="15">
+    <row r="61" spans="2:44" ht="14">
       <c r="B61" s="25" t="s">
         <v>129</v>
       </c>
@@ -26559,7 +26557,7 @@
       <c r="AQ61" s="29"/>
       <c r="AR61" s="29"/>
     </row>
-    <row r="62" spans="2:44" ht="15">
+    <row r="62" spans="2:44" ht="14">
       <c r="B62" s="25" t="s">
         <v>129</v>
       </c>
@@ -26648,7 +26646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:44" ht="15">
+    <row r="63" spans="2:44" ht="14">
       <c r="B63" s="25" t="s">
         <v>129</v>
       </c>
@@ -26719,7 +26717,7 @@
       <c r="AQ63" s="29"/>
       <c r="AR63" s="29"/>
     </row>
-    <row r="64" spans="2:44" ht="15">
+    <row r="64" spans="2:44" ht="14">
       <c r="B64" s="25" t="s">
         <v>129</v>
       </c>
@@ -26806,7 +26804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:44" ht="15">
+    <row r="65" spans="2:44" ht="14.5">
       <c r="B65" s="25" t="s">
         <v>129</v>
       </c>
@@ -26881,7 +26879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="2:44" ht="15">
+    <row r="66" spans="2:44" ht="14">
       <c r="B66" s="25" t="s">
         <v>179</v>
       </c>
@@ -26948,7 +26946,7 @@
       <c r="AQ66" s="29"/>
       <c r="AR66" s="29"/>
     </row>
-    <row r="67" spans="2:44" ht="15">
+    <row r="67" spans="2:44" ht="14">
       <c r="B67" s="25" t="s">
         <v>179</v>
       </c>
@@ -27055,7 +27053,7 @@
       <c r="AQ67" s="29"/>
       <c r="AR67" s="29"/>
     </row>
-    <row r="68" spans="2:44" ht="15">
+    <row r="68" spans="2:44" ht="14">
       <c r="B68" s="25" t="s">
         <v>179</v>
       </c>
@@ -27160,7 +27158,7 @@
       <c r="AQ68" s="29"/>
       <c r="AR68" s="29"/>
     </row>
-    <row r="69" spans="2:44" ht="15">
+    <row r="69" spans="2:44" ht="14">
       <c r="B69" s="25" t="s">
         <v>179</v>
       </c>
@@ -27265,7 +27263,7 @@
       <c r="AQ69" s="29"/>
       <c r="AR69" s="29"/>
     </row>
-    <row r="70" spans="2:44" ht="15">
+    <row r="70" spans="2:44" ht="14">
       <c r="B70" s="25" t="s">
         <v>179</v>
       </c>
@@ -27370,7 +27368,7 @@
       <c r="AQ70" s="29"/>
       <c r="AR70" s="29"/>
     </row>
-    <row r="71" spans="2:44" ht="15">
+    <row r="71" spans="2:44" ht="14">
       <c r="B71" s="25" t="s">
         <v>179</v>
       </c>
@@ -27475,7 +27473,7 @@
       <c r="AQ71" s="29"/>
       <c r="AR71" s="29"/>
     </row>
-    <row r="72" spans="2:44" ht="15">
+    <row r="72" spans="2:44" ht="14">
       <c r="B72" s="25" t="s">
         <v>179</v>
       </c>
@@ -27580,7 +27578,7 @@
       <c r="AQ72" s="29"/>
       <c r="AR72" s="29"/>
     </row>
-    <row r="73" spans="2:44" ht="15">
+    <row r="73" spans="2:44" ht="14">
       <c r="B73" s="25" t="s">
         <v>179</v>
       </c>
@@ -27685,7 +27683,7 @@
       <c r="AQ73" s="25"/>
       <c r="AR73" s="25"/>
     </row>
-    <row r="74" spans="2:44" ht="15">
+    <row r="74" spans="2:44" ht="14">
       <c r="B74" s="25" t="s">
         <v>179</v>
       </c>
@@ -27790,7 +27788,7 @@
       <c r="AQ74" s="25"/>
       <c r="AR74" s="25"/>
     </row>
-    <row r="75" spans="2:44" ht="15">
+    <row r="75" spans="2:44" ht="14">
       <c r="B75" s="25" t="s">
         <v>179</v>
       </c>
@@ -27895,7 +27893,7 @@
       <c r="AQ75" s="25"/>
       <c r="AR75" s="25"/>
     </row>
-    <row r="76" spans="2:44" ht="15">
+    <row r="76" spans="2:44" ht="14">
       <c r="B76" s="25" t="s">
         <v>179</v>
       </c>
@@ -28000,7 +27998,7 @@
       <c r="AQ76" s="25"/>
       <c r="AR76" s="25"/>
     </row>
-    <row r="77" spans="2:44" ht="15">
+    <row r="77" spans="2:44" ht="14">
       <c r="B77" s="25" t="s">
         <v>179</v>
       </c>
@@ -28105,7 +28103,7 @@
       <c r="AQ77" s="25"/>
       <c r="AR77" s="25"/>
     </row>
-    <row r="78" spans="2:44" ht="15">
+    <row r="78" spans="2:44" ht="14">
       <c r="B78" s="25" t="s">
         <v>179</v>
       </c>
@@ -28210,7 +28208,7 @@
       <c r="AQ78" s="25"/>
       <c r="AR78" s="25"/>
     </row>
-    <row r="79" spans="2:44" ht="15">
+    <row r="79" spans="2:44" ht="14">
       <c r="B79" s="25" t="s">
         <v>179</v>
       </c>
@@ -28315,7 +28313,7 @@
       <c r="AQ79" s="25"/>
       <c r="AR79" s="25"/>
     </row>
-    <row r="80" spans="2:44" ht="15">
+    <row r="80" spans="2:44" ht="14">
       <c r="B80" s="25" t="s">
         <v>179</v>
       </c>
@@ -28420,7 +28418,7 @@
       <c r="AQ80" s="25"/>
       <c r="AR80" s="25"/>
     </row>
-    <row r="81" spans="2:44" ht="15">
+    <row r="81" spans="2:44" ht="14">
       <c r="B81" s="25" t="s">
         <v>179</v>
       </c>
@@ -28525,7 +28523,7 @@
       <c r="AQ81" s="25"/>
       <c r="AR81" s="25"/>
     </row>
-    <row r="82" spans="2:44" ht="15">
+    <row r="82" spans="2:44" ht="14">
       <c r="B82" s="25" t="s">
         <v>179</v>
       </c>
@@ -28626,7 +28624,7 @@
       </c>
       <c r="AR82" s="25"/>
     </row>
-    <row r="83" spans="2:44" ht="15">
+    <row r="83" spans="2:44" ht="14.5">
       <c r="B83" s="9" t="s">
         <v>55</v>
       </c>
@@ -28681,7 +28679,7 @@
       <c r="AQ83" s="25"/>
       <c r="AR83" s="25"/>
     </row>
-    <row r="84" spans="2:44" ht="15">
+    <row r="84" spans="2:44" ht="14.5">
       <c r="B84" s="9" t="s">
         <v>55</v>
       </c>
@@ -28770,7 +28768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:44" ht="15">
+    <row r="85" spans="2:44" ht="14.5">
       <c r="B85" s="9" t="s">
         <v>55</v>
       </c>
@@ -28865,7 +28863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:44" ht="15">
+    <row r="86" spans="2:44" ht="14.5">
       <c r="B86" s="9" t="s">
         <v>55</v>
       </c>
@@ -28954,7 +28952,7 @@
       <c r="AQ86" s="25"/>
       <c r="AR86" s="25"/>
     </row>
-    <row r="87" spans="2:44" ht="15">
+    <row r="87" spans="2:44" ht="14.5">
       <c r="B87" s="9" t="s">
         <v>55</v>
       </c>
@@ -29029,7 +29027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:44" ht="15">
+    <row r="88" spans="2:44" ht="14.5">
       <c r="B88" s="9" t="s">
         <v>55</v>
       </c>
@@ -29110,7 +29108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:44" ht="15">
+    <row r="89" spans="2:44" ht="14.5">
       <c r="B89" s="9" t="s">
         <v>55</v>
       </c>
@@ -29191,7 +29189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:44" ht="15">
+    <row r="90" spans="2:44" ht="14.5">
       <c r="B90" s="9" t="s">
         <v>55</v>
       </c>
@@ -29266,7 +29264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:44" ht="15">
+    <row r="91" spans="2:44" ht="14.5">
       <c r="B91" s="9" t="s">
         <v>55</v>
       </c>
@@ -29355,7 +29353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:44" ht="15">
+    <row r="92" spans="2:44" ht="14.5">
       <c r="B92" s="9" t="s">
         <v>55</v>
       </c>
@@ -29430,7 +29428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:44" ht="15">
+    <row r="93" spans="2:44" ht="14.5">
       <c r="B93" s="9" t="s">
         <v>55</v>
       </c>
@@ -29505,7 +29503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:44" ht="15">
+    <row r="94" spans="2:44" ht="14.5">
       <c r="B94" s="9" t="s">
         <v>55</v>
       </c>
@@ -29574,7 +29572,7 @@
       <c r="AQ94" s="25"/>
       <c r="AR94" s="25"/>
     </row>
-    <row r="95" spans="2:44" ht="15">
+    <row r="95" spans="2:44" ht="14.5">
       <c r="B95" s="9" t="s">
         <v>55</v>
       </c>
@@ -29629,7 +29627,7 @@
       <c r="AQ95" s="25"/>
       <c r="AR95" s="25"/>
     </row>
-    <row r="96" spans="2:44" ht="15">
+    <row r="96" spans="2:44" ht="14.5">
       <c r="B96" s="9" t="s">
         <v>55</v>
       </c>
@@ -29714,7 +29712,7 @@
       <c r="AQ96" s="25"/>
       <c r="AR96" s="25"/>
     </row>
-    <row r="97" spans="2:44" ht="15">
+    <row r="97" spans="2:44" ht="14.5">
       <c r="B97" s="9" t="s">
         <v>55</v>
       </c>
@@ -29801,7 +29799,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="2:44" ht="15">
+    <row r="98" spans="2:44" ht="14.5">
       <c r="B98" s="9" t="s">
         <v>55</v>
       </c>
@@ -29890,7 +29888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:44" ht="15">
+    <row r="99" spans="2:44" ht="14.5">
       <c r="B99" s="9" t="s">
         <v>55</v>
       </c>
@@ -29991,7 +29989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="2:44" ht="15">
+    <row r="100" spans="2:44" ht="14.5">
       <c r="B100" s="9" t="s">
         <v>55</v>
       </c>
@@ -30048,7 +30046,7 @@
       <c r="AQ100" s="25"/>
       <c r="AR100" s="25"/>
     </row>
-    <row r="101" spans="2:44" ht="15">
+    <row r="101" spans="2:44" ht="14.5">
       <c r="B101" s="9" t="s">
         <v>55</v>
       </c>
@@ -30105,7 +30103,7 @@
       <c r="AQ101" s="25"/>
       <c r="AR101" s="25"/>
     </row>
-    <row r="102" spans="2:44" ht="15">
+    <row r="102" spans="2:44" ht="14.5">
       <c r="B102" s="9" t="s">
         <v>55</v>
       </c>
@@ -30200,7 +30198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:44" ht="15">
+    <row r="103" spans="2:44" ht="14.5">
       <c r="B103" s="9" t="s">
         <v>55</v>
       </c>
@@ -30295,7 +30293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="2:44" ht="15">
+    <row r="104" spans="2:44" ht="14.5">
       <c r="B104" s="9" t="s">
         <v>55</v>
       </c>
@@ -30370,7 +30368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:44" ht="15">
+    <row r="105" spans="2:44" ht="14.5">
       <c r="B105" s="9" t="s">
         <v>55</v>
       </c>
@@ -30465,7 +30463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="2:44" ht="15">
+    <row r="106" spans="2:44" ht="14.5">
       <c r="B106" s="9" t="s">
         <v>55</v>
       </c>
@@ -30554,7 +30552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:44" ht="15">
+    <row r="107" spans="2:44" ht="14.5">
       <c r="B107" s="9" t="s">
         <v>55</v>
       </c>
@@ -30643,7 +30641,7 @@
       <c r="AQ107" s="25"/>
       <c r="AR107" s="25"/>
     </row>
-    <row r="108" spans="2:44" ht="15">
+    <row r="108" spans="2:44" ht="14.5">
       <c r="B108" s="9" t="s">
         <v>55</v>
       </c>
@@ -43006,9 +43004,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -43090,29 +43088,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409AF7FE-97E2-49A2-85B3-28ECC4D7AD22}">
   <dimension ref="C3:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
-      <c r="E3" s="158" t="s">
+      <c r="E3" s="160" t="s">
         <v>595</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
     </row>
-    <row r="5" spans="3:12" ht="18.75">
-      <c r="J5" s="159" t="s">
+    <row r="5" spans="3:12" ht="18.5">
+      <c r="J5" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="K5" s="160"/>
+      <c r="K5" s="162"/>
     </row>
-    <row r="6" spans="3:12" ht="18.75">
+    <row r="6" spans="3:12" ht="18.5">
       <c r="C6" s="33" t="s">
         <v>597</v>
       </c>
@@ -43144,11 +43142,11 @@
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="45.75">
-      <c r="C7" s="161" t="s">
+    <row r="7" spans="3:12" ht="43.5">
+      <c r="C7" s="163" t="s">
         <v>607</v>
       </c>
-      <c r="D7" s="186" t="s">
+      <c r="D7" s="158" t="s">
         <v>608</v>
       </c>
       <c r="E7" s="83" t="s">
@@ -43168,9 +43166,9 @@
       <c r="K7" s="83"/>
       <c r="L7" s="84"/>
     </row>
-    <row r="8" spans="3:12" ht="45.75">
-      <c r="C8" s="162"/>
-      <c r="D8" s="187" t="s">
+    <row r="8" spans="3:12" ht="43.5">
+      <c r="C8" s="164"/>
+      <c r="D8" s="159" t="s">
         <v>613</v>
       </c>
       <c r="E8" s="83" t="s">
@@ -43190,8 +43188,8 @@
       <c r="K8" s="83"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="3:12" ht="45.75">
-      <c r="C9" s="162"/>
+    <row r="9" spans="3:12" ht="43.5">
+      <c r="C9" s="164"/>
       <c r="D9" s="83" t="s">
         <v>618</v>
       </c>
@@ -43213,7 +43211,7 @@
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="162"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
       <c r="F10" s="83"/>
@@ -43225,7 +43223,7 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="162"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
       <c r="F11" s="83"/>
@@ -43237,7 +43235,7 @@
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="162"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -43249,7 +43247,7 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="162"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -43261,7 +43259,7 @@
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="162"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -43273,7 +43271,7 @@
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="3:12">
-      <c r="C15" s="162"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -43285,7 +43283,7 @@
       <c r="L15" s="18"/>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="162"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -43297,7 +43295,7 @@
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="162"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -43309,7 +43307,7 @@
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="162"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -43321,7 +43319,7 @@
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="162"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -43350,81 +43348,81 @@
       <selection activeCell="E31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.85546875" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" customWidth="1"/>
-    <col min="42" max="42" width="19.42578125" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" customWidth="1"/>
-    <col min="47" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.28515625" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.7109375" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.140625" customWidth="1"/>
-    <col min="63" max="63" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.7109375" customWidth="1"/>
-    <col min="66" max="66" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" customWidth="1"/>
+    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.54296875" customWidth="1"/>
+    <col min="31" max="31" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7265625" customWidth="1"/>
+    <col min="34" max="34" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.81640625" customWidth="1"/>
+    <col min="39" max="39" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7265625" customWidth="1"/>
+    <col min="42" max="42" width="19.453125" customWidth="1"/>
+    <col min="43" max="43" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.54296875" customWidth="1"/>
+    <col min="47" max="47" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7265625" customWidth="1"/>
+    <col min="50" max="50" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.26953125" customWidth="1"/>
+    <col min="55" max="55" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.7265625" customWidth="1"/>
+    <col min="58" max="58" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.1796875" customWidth="1"/>
+    <col min="63" max="63" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7265625" customWidth="1"/>
+    <col min="66" max="66" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25">
+    <row r="2" spans="2:10" ht="23.5">
       <c r="B2" s="69" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" ht="14.5">
       <c r="C4" s="21" t="s">
         <v>624</v>
       </c>
@@ -43433,10 +43431,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" ht="14.5">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" ht="14.5">
       <c r="C7" s="16"/>
       <c r="D7" s="19" t="s">
         <v>21</v>
@@ -43452,7 +43450,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" ht="14.5">
       <c r="C8" s="96" t="s">
         <v>628</v>
       </c>
@@ -43473,17 +43471,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.75">
+    <row r="10" spans="2:10" ht="18.5">
       <c r="C10" s="68" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" ht="14.5">
       <c r="C11" s="23" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" ht="14.5">
       <c r="C12" s="19" t="s">
         <v>631</v>
       </c>
@@ -43505,7 +43503,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" ht="14.5">
       <c r="C13" s="17" t="s">
         <v>3</v>
       </c>
@@ -43530,7 +43528,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" ht="14.5">
       <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
@@ -43555,7 +43553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" ht="14.5">
       <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
@@ -43580,7 +43578,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" ht="14.5">
       <c r="C16" s="17" t="s">
         <v>635</v>
       </c>
@@ -43605,7 +43603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" ht="14.5">
       <c r="C17" s="17" t="s">
         <v>636</v>
       </c>
@@ -43630,7 +43628,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" ht="14.5">
       <c r="C18" s="17" t="s">
         <v>637</v>
       </c>
@@ -43655,7 +43653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" ht="14.5">
       <c r="C19" s="31" t="s">
         <v>638</v>
       </c>
@@ -43680,7 +43678,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" ht="14.5">
       <c r="C20" s="78" t="s">
         <v>639</v>
       </c>
@@ -43707,12 +43705,12 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="22" spans="3:10" ht="18.75">
+    <row r="22" spans="3:10" ht="18.5">
       <c r="C22" s="68" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" ht="14.5">
       <c r="C23" s="89" t="s">
         <v>631</v>
       </c>
@@ -43730,7 +43728,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" ht="14.5">
       <c r="C24" s="92" t="s">
         <v>3</v>
       </c>
@@ -43748,7 +43746,7 @@
       </c>
       <c r="G24" s="97"/>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" ht="14.5">
       <c r="C25" s="92" t="s">
         <v>4</v>
       </c>
@@ -43766,7 +43764,7 @@
       </c>
       <c r="G25" s="97"/>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" ht="14.5">
       <c r="C26" s="92" t="s">
         <v>5</v>
       </c>
@@ -43784,7 +43782,7 @@
       </c>
       <c r="G26" s="97"/>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="3:10" ht="14.5">
       <c r="C27" s="92" t="s">
         <v>635</v>
       </c>
@@ -43802,7 +43800,7 @@
       </c>
       <c r="G27" s="97"/>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" ht="14.5">
       <c r="C28" s="92" t="s">
         <v>636</v>
       </c>
@@ -43820,7 +43818,7 @@
       </c>
       <c r="G28" s="97"/>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="3:10" ht="14.5">
       <c r="C29" s="92" t="s">
         <v>637</v>
       </c>
@@ -43838,7 +43836,7 @@
       </c>
       <c r="G29" s="97"/>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="3:10" ht="14.5">
       <c r="C30" s="94" t="s">
         <v>638</v>
       </c>
@@ -43856,7 +43854,7 @@
       </c>
       <c r="G30" s="97"/>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="3:10" ht="14.5">
       <c r="C31" s="78" t="s">
         <v>644</v>
       </c>
@@ -43877,123 +43875,123 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="35" spans="2:66" ht="23.25">
+    <row r="35" spans="2:66" ht="23.5">
       <c r="B35" s="69" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="36" spans="2:66" ht="23.25">
+    <row r="36" spans="2:66" ht="23.5">
       <c r="B36" s="69"/>
     </row>
-    <row r="37" spans="2:66" ht="23.25">
+    <row r="37" spans="2:66" ht="23.5">
       <c r="B37" s="69"/>
     </row>
-    <row r="38" spans="2:66" ht="23.25">
+    <row r="38" spans="2:66" ht="23.5">
       <c r="B38" s="69"/>
     </row>
-    <row r="39" spans="2:66" ht="23.25">
+    <row r="39" spans="2:66" ht="23.5">
       <c r="B39" s="69"/>
     </row>
-    <row r="40" spans="2:66" ht="23.25">
+    <row r="40" spans="2:66" ht="23.5">
       <c r="B40" s="69"/>
     </row>
-    <row r="41" spans="2:66" ht="23.25">
+    <row r="41" spans="2:66" ht="23.5">
       <c r="B41" s="69"/>
     </row>
-    <row r="42" spans="2:66" ht="23.25">
+    <row r="42" spans="2:66" ht="23.5">
       <c r="B42" s="69"/>
     </row>
-    <row r="43" spans="2:66" ht="23.25">
+    <row r="43" spans="2:66" ht="23.5">
       <c r="B43" s="69"/>
     </row>
-    <row r="44" spans="2:66" ht="23.25">
+    <row r="44" spans="2:66" ht="23.5">
       <c r="B44" s="69"/>
     </row>
-    <row r="45" spans="2:66" ht="23.25">
+    <row r="45" spans="2:66" ht="23.5">
       <c r="B45" s="69"/>
     </row>
-    <row r="47" spans="2:66" ht="14.45" customHeight="1">
-      <c r="D47" s="172" t="s">
+    <row r="47" spans="2:66" ht="14.5" customHeight="1">
+      <c r="D47" s="174" t="s">
         <v>646</v>
       </c>
-      <c r="E47" s="173"/>
-      <c r="F47" s="173"/>
-      <c r="G47" s="173"/>
-      <c r="H47" s="173"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="173"/>
-      <c r="K47" s="174" t="s">
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="176" t="s">
         <v>647</v>
       </c>
-      <c r="L47" s="175"/>
-      <c r="M47" s="175"/>
-      <c r="N47" s="175"/>
-      <c r="O47" s="175"/>
-      <c r="P47" s="175"/>
-      <c r="Q47" s="175"/>
-      <c r="R47" s="176"/>
-      <c r="S47" s="177" t="s">
+      <c r="L47" s="177"/>
+      <c r="M47" s="177"/>
+      <c r="N47" s="177"/>
+      <c r="O47" s="177"/>
+      <c r="P47" s="177"/>
+      <c r="Q47" s="177"/>
+      <c r="R47" s="178"/>
+      <c r="S47" s="179" t="s">
         <v>648</v>
       </c>
-      <c r="T47" s="178"/>
-      <c r="U47" s="178"/>
-      <c r="V47" s="178"/>
-      <c r="W47" s="178"/>
-      <c r="X47" s="178"/>
-      <c r="Y47" s="178"/>
-      <c r="Z47" s="179"/>
-      <c r="AA47" s="180" t="s">
+      <c r="T47" s="180"/>
+      <c r="U47" s="180"/>
+      <c r="V47" s="180"/>
+      <c r="W47" s="180"/>
+      <c r="X47" s="180"/>
+      <c r="Y47" s="180"/>
+      <c r="Z47" s="181"/>
+      <c r="AA47" s="182" t="s">
         <v>649</v>
       </c>
-      <c r="AB47" s="181"/>
-      <c r="AC47" s="181"/>
-      <c r="AD47" s="181"/>
-      <c r="AE47" s="181"/>
-      <c r="AF47" s="181"/>
-      <c r="AG47" s="181"/>
-      <c r="AH47" s="182"/>
-      <c r="AI47" s="183" t="s">
+      <c r="AB47" s="183"/>
+      <c r="AC47" s="183"/>
+      <c r="AD47" s="183"/>
+      <c r="AE47" s="183"/>
+      <c r="AF47" s="183"/>
+      <c r="AG47" s="183"/>
+      <c r="AH47" s="184"/>
+      <c r="AI47" s="185" t="s">
         <v>650</v>
       </c>
-      <c r="AJ47" s="184"/>
-      <c r="AK47" s="184"/>
-      <c r="AL47" s="184"/>
-      <c r="AM47" s="184"/>
-      <c r="AN47" s="184"/>
-      <c r="AO47" s="184"/>
-      <c r="AP47" s="185"/>
-      <c r="AQ47" s="163" t="s">
+      <c r="AJ47" s="186"/>
+      <c r="AK47" s="186"/>
+      <c r="AL47" s="186"/>
+      <c r="AM47" s="186"/>
+      <c r="AN47" s="186"/>
+      <c r="AO47" s="186"/>
+      <c r="AP47" s="187"/>
+      <c r="AQ47" s="165" t="s">
         <v>651</v>
       </c>
-      <c r="AR47" s="164"/>
-      <c r="AS47" s="164"/>
-      <c r="AT47" s="164"/>
-      <c r="AU47" s="164"/>
-      <c r="AV47" s="164"/>
-      <c r="AW47" s="164"/>
-      <c r="AX47" s="165"/>
-      <c r="AY47" s="166" t="s">
+      <c r="AR47" s="166"/>
+      <c r="AS47" s="166"/>
+      <c r="AT47" s="166"/>
+      <c r="AU47" s="166"/>
+      <c r="AV47" s="166"/>
+      <c r="AW47" s="166"/>
+      <c r="AX47" s="167"/>
+      <c r="AY47" s="168" t="s">
         <v>652</v>
       </c>
-      <c r="AZ47" s="167"/>
-      <c r="BA47" s="167"/>
-      <c r="BB47" s="167"/>
-      <c r="BC47" s="167"/>
-      <c r="BD47" s="167"/>
-      <c r="BE47" s="167"/>
-      <c r="BF47" s="168"/>
-      <c r="BG47" s="169" t="s">
+      <c r="AZ47" s="169"/>
+      <c r="BA47" s="169"/>
+      <c r="BB47" s="169"/>
+      <c r="BC47" s="169"/>
+      <c r="BD47" s="169"/>
+      <c r="BE47" s="169"/>
+      <c r="BF47" s="170"/>
+      <c r="BG47" s="171" t="s">
         <v>653</v>
       </c>
-      <c r="BH47" s="170"/>
-      <c r="BI47" s="170"/>
-      <c r="BJ47" s="170"/>
-      <c r="BK47" s="170"/>
-      <c r="BL47" s="170"/>
-      <c r="BM47" s="170"/>
-      <c r="BN47" s="171"/>
+      <c r="BH47" s="172"/>
+      <c r="BI47" s="172"/>
+      <c r="BJ47" s="172"/>
+      <c r="BK47" s="172"/>
+      <c r="BL47" s="172"/>
+      <c r="BM47" s="172"/>
+      <c r="BN47" s="173"/>
     </row>
-    <row r="48" spans="2:66">
+    <row r="48" spans="2:66" ht="14.5">
       <c r="C48" s="152" t="s">
         <v>11</v>
       </c>
@@ -44187,7 +44185,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="49" spans="3:66">
+    <row r="49" spans="3:66" ht="14.5">
       <c r="C49" s="18" t="str" cm="1">
         <f t="array" ref="C49:C61">_xlfn.UNIQUE(AdopcionIA!$C$6:$C$507)</f>
         <v>PGEN22</v>
@@ -44201,7 +44199,7 @@
         <v>49</v>
       </c>
       <c r="F49" s="60">
-        <f>IFERROR((D49-E49)/D49,0)</f>
+        <f t="shared" ref="F49:F58" si="4">IFERROR((D49-E49)/D49,0)</f>
         <v>-2.0833333333333332E-2</v>
       </c>
       <c r="G49" s="47">
@@ -44229,7 +44227,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="60">
-        <f>IFERROR((K49-L49)/K49,0)</f>
+        <f t="shared" ref="M49:M57" si="5">IFERROR((K49-L49)/K49,0)</f>
         <v>0</v>
       </c>
       <c r="N49" s="20">
@@ -44261,7 +44259,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="61">
-        <f>IFERROR((S49-T49)/S49,0)</f>
+        <f t="shared" ref="U49:U57" si="6">IFERROR((S49-T49)/S49,0)</f>
         <v>0</v>
       </c>
       <c r="V49" s="50">
@@ -44445,7 +44443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5">
       <c r="C50" s="18" t="str">
         <v>WF 21</v>
       </c>
@@ -44458,7 +44456,7 @@
         <v>24.75</v>
       </c>
       <c r="F50" s="60">
-        <f>IFERROR((D50-E50)/D50,0)</f>
+        <f t="shared" si="4"/>
         <v>0.41420118343195267</v>
       </c>
       <c r="G50" s="47">
@@ -44486,7 +44484,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="60">
-        <f>IFERROR((K50-L50)/K50,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N50" s="20">
@@ -44518,7 +44516,7 @@
         <v>8</v>
       </c>
       <c r="U50" s="61">
-        <f>IFERROR((S50-T50)/S50,0)</f>
+        <f t="shared" si="6"/>
         <v>0.37254901960784315</v>
       </c>
       <c r="V50" s="50">
@@ -44550,7 +44548,7 @@
         <v>9.25</v>
       </c>
       <c r="AC50" s="60">
-        <f t="shared" ref="AC50:AC53" si="4">IFERROR((AA50-AB50)/AA50,0)</f>
+        <f t="shared" ref="AC50:AC53" si="7">IFERROR((AA50-AB50)/AA50,0)</f>
         <v>0.31481481481481483</v>
       </c>
       <c r="AD50" s="55">
@@ -44582,7 +44580,7 @@
         <v>1.5</v>
       </c>
       <c r="AK50" s="60">
-        <f t="shared" ref="AK50:AK53" si="5">IFERROR((AI50-AJ50)/AI50,0)</f>
+        <f t="shared" ref="AK50:AK53" si="8">IFERROR((AI50-AJ50)/AI50,0)</f>
         <v>0.625</v>
       </c>
       <c r="AL50" s="59">
@@ -44614,7 +44612,7 @@
         <v>0</v>
       </c>
       <c r="AS50" s="60">
-        <f t="shared" ref="AS50:AS53" si="6">IFERROR((AQ50-AR50)/AQ50,0)</f>
+        <f t="shared" ref="AS50:AS53" si="9">IFERROR((AQ50-AR50)/AQ50,0)</f>
         <v>0</v>
       </c>
       <c r="AT50" s="67">
@@ -44646,7 +44644,7 @@
         <v>0</v>
       </c>
       <c r="BA50" s="60">
-        <f t="shared" ref="BA50:BA53" si="7">IFERROR((AY50-AZ50)/AY50,0)</f>
+        <f t="shared" ref="BA50:BA53" si="10">IFERROR((AY50-AZ50)/AY50,0)</f>
         <v>0</v>
       </c>
       <c r="BB50" s="73">
@@ -44678,7 +44676,7 @@
         <v>6</v>
       </c>
       <c r="BI50" s="60">
-        <f t="shared" ref="BI50:BI53" si="8">IFERROR((BG50-BH50)/BG50,0)</f>
+        <f t="shared" ref="BI50:BI53" si="11">IFERROR((BG50-BH50)/BG50,0)</f>
         <v>0.5</v>
       </c>
       <c r="BJ50" s="77">
@@ -44702,7 +44700,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5">
       <c r="C51" s="18" t="str">
         <v>ARQ22</v>
       </c>
@@ -44715,7 +44713,7 @@
         <v>1.75</v>
       </c>
       <c r="F51" s="60">
-        <f>IFERROR((D51-E51)/D51,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
       <c r="G51" s="47">
@@ -44743,7 +44741,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="60">
-        <f>IFERROR((K51-L51)/K51,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N51" s="20">
@@ -44775,7 +44773,7 @@
         <v>1.75</v>
       </c>
       <c r="U51" s="61">
-        <f>IFERROR((S51-T51)/S51,0)</f>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
       <c r="V51" s="50">
@@ -44807,7 +44805,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD51" s="55">
@@ -44839,7 +44837,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL51" s="59">
@@ -44871,7 +44869,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT51" s="67">
@@ -44903,7 +44901,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BB51" s="73">
@@ -44935,7 +44933,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ51" s="77">
@@ -44959,7 +44957,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5">
       <c r="C52" s="18" t="str">
         <v>PDPR01</v>
       </c>
@@ -44972,7 +44970,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="60">
-        <f>IFERROR((D52-E52)/D52,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="G52" s="47">
@@ -45000,7 +44998,7 @@
         <v>15</v>
       </c>
       <c r="M52" s="60">
-        <f>IFERROR((K52-L52)/K52,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N52" s="20">
@@ -45032,7 +45030,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="61">
-        <f>IFERROR((S52-T52)/S52,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V52" s="50">
@@ -45064,7 +45062,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD52" s="55">
@@ -45096,7 +45094,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL52" s="59">
@@ -45128,7 +45126,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT52" s="67">
@@ -45160,7 +45158,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BB52" s="73">
@@ -45192,7 +45190,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ52" s="77">
@@ -45216,7 +45214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5">
       <c r="C53" s="18" t="str">
         <v>WF 22</v>
       </c>
@@ -45229,7 +45227,7 @@
         <v>13.01</v>
       </c>
       <c r="F53" s="60">
-        <f>IFERROR((D53-E53)/D53,0)</f>
+        <f t="shared" si="4"/>
         <v>0.38194774346793353</v>
       </c>
       <c r="G53" s="47">
@@ -45257,7 +45255,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="63">
-        <f>IFERROR((K53-L53)/K53,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N53" s="20">
@@ -45289,7 +45287,7 @@
         <v>7.76</v>
       </c>
       <c r="U53" s="62">
-        <f>IFERROR((S53-T53)/S53,0)</f>
+        <f t="shared" si="6"/>
         <v>9.2397660818713548E-2</v>
       </c>
       <c r="V53" s="50">
@@ -45321,7 +45319,7 @@
         <v>2</v>
       </c>
       <c r="AC53" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="AD53" s="55">
@@ -45353,7 +45351,7 @@
         <v>1</v>
       </c>
       <c r="AK53" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="AL53" s="59">
@@ -45385,7 +45383,7 @@
         <v>2.25</v>
       </c>
       <c r="AS53" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.59090909090909094</v>
       </c>
       <c r="AT53" s="67">
@@ -45417,7 +45415,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BB53" s="73">
@@ -45449,7 +45447,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="77">
@@ -45473,7 +45471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5">
       <c r="C54" s="18" t="str">
         <v>ARQ23</v>
       </c>
@@ -45486,7 +45484,7 @@
         <v>0.75</v>
       </c>
       <c r="F54" s="60">
-        <f>IFERROR((D54-E54)/D54,0)</f>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="G54" s="47">
@@ -45514,7 +45512,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="63">
-        <f>IFERROR((K54-L54)/K54,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N54" s="20">
@@ -45546,7 +45544,7 @@
         <v>0.75</v>
       </c>
       <c r="U54" s="62">
-        <f>IFERROR((S54-T54)/S54,0)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="V54" s="50">
@@ -45743,7 +45741,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="60">
-        <f>IFERROR((D55-E55)/D55,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G55" s="47">
@@ -45771,7 +45769,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="63">
-        <f>IFERROR((K55-L55)/K55,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N55" s="20">
@@ -45803,7 +45801,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="62">
-        <f>IFERROR((S55-T55)/S55,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V55" s="50">
@@ -46000,7 +45998,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="60">
-        <f>IFERROR((D56-E56)/D56,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G56" s="47">
@@ -46028,7 +46026,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="63">
-        <f>IFERROR((K56-L56)/K56,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N56" s="20">
@@ -46060,7 +46058,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="62">
-        <f>IFERROR((S56-T56)/S56,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V56" s="50">
@@ -46244,7 +46242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66">
+    <row r="57" spans="3:66" ht="14.5">
       <c r="C57" s="17" t="str">
         <v>PGEN24</v>
       </c>
@@ -46257,7 +46255,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="60">
-        <f>IFERROR((D57-E57)/D57,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G57" s="47">
@@ -46285,7 +46283,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="63">
-        <f>IFERROR((K57-L57)/K57,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N57" s="20">
@@ -46317,7 +46315,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="62">
-        <f>IFERROR((S57-T57)/S57,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V57" s="50">
@@ -46501,7 +46499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:66">
+    <row r="58" spans="3:66" ht="14.5">
       <c r="C58" s="17" t="str">
         <v>ARQ24</v>
       </c>
@@ -46514,7 +46512,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="60">
-        <f>IFERROR((D58-E58)/D58,0)</f>
+        <f t="shared" si="4"/>
         <v>0.94594594594594594</v>
       </c>
       <c r="G58" s="47">
@@ -46542,7 +46540,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="63">
-        <f t="shared" ref="M58:M59" si="9">IFERROR((K58-L58)/K58,0)</f>
+        <f t="shared" ref="M58:M59" si="12">IFERROR((K58-L58)/K58,0)</f>
         <v>0</v>
       </c>
       <c r="N58" s="20">
@@ -46574,7 +46572,7 @@
         <v>1</v>
       </c>
       <c r="U58" s="62">
-        <f t="shared" ref="U58:U59" si="10">IFERROR((S58-T58)/S58,0)</f>
+        <f t="shared" ref="U58:U59" si="13">IFERROR((S58-T58)/S58,0)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="V58" s="50">
@@ -46606,7 +46604,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="60">
-        <f t="shared" ref="AC58:AC59" si="11">IFERROR((AA58-AB58)/AA58,0)</f>
+        <f t="shared" ref="AC58:AC59" si="14">IFERROR((AA58-AB58)/AA58,0)</f>
         <v>0</v>
       </c>
       <c r="AD58" s="55">
@@ -46638,7 +46636,7 @@
         <v>1</v>
       </c>
       <c r="AK58" s="60">
-        <f t="shared" ref="AK58:AK59" si="12">IFERROR((AI58-AJ58)/AI58,0)</f>
+        <f t="shared" ref="AK58:AK59" si="15">IFERROR((AI58-AJ58)/AI58,0)</f>
         <v>0.5</v>
       </c>
       <c r="AL58" s="59">
@@ -46670,7 +46668,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="60">
-        <f t="shared" ref="AS58:AS59" si="13">IFERROR((AQ58-AR58)/AQ58,0)</f>
+        <f t="shared" ref="AS58:AS59" si="16">IFERROR((AQ58-AR58)/AQ58,0)</f>
         <v>0</v>
       </c>
       <c r="AT58" s="67">
@@ -46702,7 +46700,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="60">
-        <f t="shared" ref="BA58:BA59" si="14">IFERROR((AY58-AZ58)/AY58,0)</f>
+        <f t="shared" ref="BA58:BA59" si="17">IFERROR((AY58-AZ58)/AY58,0)</f>
         <v>0</v>
       </c>
       <c r="BB58" s="73">
@@ -46734,7 +46732,7 @@
         <v>0</v>
       </c>
       <c r="BI58" s="60">
-        <f t="shared" ref="BI58:BI59" si="15">IFERROR((BG58-BH58)/BG58,0)</f>
+        <f t="shared" ref="BI58:BI59" si="18">IFERROR((BG58-BH58)/BG58,0)</f>
         <v>1</v>
       </c>
       <c r="BJ58" s="77">
@@ -46758,7 +46756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5">
       <c r="C59" s="17" t="str">
         <v>WF 23</v>
       </c>
@@ -46771,7 +46769,7 @@
         <v>4.3</v>
       </c>
       <c r="F59" s="60">
-        <f t="shared" ref="F58:F59" si="16">IFERROR((D59-E59)/D59,0)</f>
+        <f t="shared" ref="F59" si="19">IFERROR((D59-E59)/D59,0)</f>
         <v>0.63090128755364805</v>
       </c>
       <c r="G59" s="47">
@@ -46799,7 +46797,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N59" s="43">
@@ -46831,7 +46829,7 @@
         <v>4.3</v>
       </c>
       <c r="U59" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.59624413145539912</v>
       </c>
       <c r="V59" s="50">
@@ -46863,7 +46861,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AD59" s="55">
@@ -46895,7 +46893,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL59" s="59">
@@ -46927,7 +46925,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT59" s="67">
@@ -46959,7 +46957,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB59" s="73">
@@ -46991,7 +46989,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BJ59" s="77">
@@ -47028,7 +47026,7 @@
         <v>25</v>
       </c>
       <c r="F60" s="60">
-        <f t="shared" ref="F60" si="17">IFERROR((D60-E60)/D60,0)</f>
+        <f t="shared" ref="F60" si="20">IFERROR((D60-E60)/D60,0)</f>
         <v>0.5</v>
       </c>
       <c r="G60" s="47">
@@ -47056,7 +47054,7 @@
         <v>25</v>
       </c>
       <c r="M60" s="61">
-        <f t="shared" ref="M60" si="18">IFERROR((K60-L60)/K60,0)</f>
+        <f t="shared" ref="M60" si="21">IFERROR((K60-L60)/K60,0)</f>
         <v>0.5</v>
       </c>
       <c r="N60" s="20">
@@ -47088,7 +47086,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="62">
-        <f t="shared" ref="U60" si="19">IFERROR((S60-T60)/S60,0)</f>
+        <f t="shared" ref="U60" si="22">IFERROR((S60-T60)/S60,0)</f>
         <v>0</v>
       </c>
       <c r="V60" s="50">
@@ -47120,7 +47118,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="60">
-        <f t="shared" ref="AC60" si="20">IFERROR((AA60-AB60)/AA60,0)</f>
+        <f t="shared" ref="AC60" si="23">IFERROR((AA60-AB60)/AA60,0)</f>
         <v>0</v>
       </c>
       <c r="AD60" s="55">
@@ -47152,7 +47150,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="60">
-        <f t="shared" ref="AK60" si="21">IFERROR((AI60-AJ60)/AI60,0)</f>
+        <f t="shared" ref="AK60" si="24">IFERROR((AI60-AJ60)/AI60,0)</f>
         <v>0</v>
       </c>
       <c r="AL60" s="59">
@@ -47184,7 +47182,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="60">
-        <f t="shared" ref="AS60" si="22">IFERROR((AQ60-AR60)/AQ60,0)</f>
+        <f t="shared" ref="AS60" si="25">IFERROR((AQ60-AR60)/AQ60,0)</f>
         <v>0</v>
       </c>
       <c r="AT60" s="67">
@@ -47216,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="60">
-        <f t="shared" ref="BA60" si="23">IFERROR((AY60-AZ60)/AY60,0)</f>
+        <f t="shared" ref="BA60" si="26">IFERROR((AY60-AZ60)/AY60,0)</f>
         <v>0</v>
       </c>
       <c r="BB60" s="73">
@@ -47248,7 +47246,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="60">
-        <f t="shared" ref="BI60" si="24">IFERROR((BG60-BH60)/BG60,0)</f>
+        <f t="shared" ref="BI60" si="27">IFERROR((BG60-BH60)/BG60,0)</f>
         <v>0</v>
       </c>
       <c r="BJ60" s="77">
@@ -47272,7 +47270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5">
       <c r="C61" s="30">
         <v>0</v>
       </c>
@@ -47284,32 +47282,32 @@
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5">
       <c r="C62" s="16"/>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5">
       <c r="C63" s="16"/>
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5">
       <c r="C64" s="16"/>
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:7" ht="14.5">
       <c r="C65" s="16"/>
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="3:7" ht="14.5">
       <c r="C66" s="16"/>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:7" ht="14.5">
       <c r="C67" s="16"/>
     </row>
   </sheetData>
@@ -47632,12 +47630,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -47838,14 +47830,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF214717-9442-4E99-A5A3-40161C82998F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF214717-9442-4E99-A5A3-40161C82998F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>